--- a/results/07-2024/contributions-comparison-07-2024.xlsx
+++ b/results/07-2024/contributions-comparison-07-2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">2026 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Q3</t>
   </si>
   <si>
     <t xml:space="preserve">historical</t>
@@ -587,16 +590,19 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0.0153</v>
@@ -643,16 +649,17 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -667,7 +674,7 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3" t="n">
-        <v>0.006</v>
+        <v>0.0065</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0056</v>
@@ -691,18 +698,21 @@
         <v>0.0049</v>
       </c>
       <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.0048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
         <v>268.6227</v>
@@ -749,16 +759,17 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
+      <c r="Y4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -773,7 +784,7 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>313.1603</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -797,18 +808,21 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>0.0416</v>
@@ -855,16 +869,17 @@
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
+      <c r="Y6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -882,7 +897,7 @@
         <v>-0.0177</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0668</v>
+        <v>-0.0669</v>
       </c>
       <c r="R7" t="n">
         <v>-0.029</v>
@@ -891,10 +906,10 @@
         <v>-0.0281</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0265</v>
+        <v>-0.0266</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0258</v>
+        <v>-0.0259</v>
       </c>
       <c r="V7" t="n">
         <v>-0.0039</v>
@@ -905,16 +920,19 @@
       <c r="X7" t="n">
         <v>-0.0022</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.0028</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>-0.3032</v>
@@ -961,16 +979,17 @@
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
+      <c r="Y8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -985,42 +1004,45 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
-        <v>-0.6888</v>
+        <v>0.1284</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.3357</v>
+        <v>-0.3265</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0309</v>
+        <v>-0.0159</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.2996</v>
+        <v>-0.2838</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.1719</v>
+        <v>-0.1558</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.0121</v>
+        <v>0.0041</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.194</v>
+        <v>-0.1806</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.1227</v>
+        <v>-0.109</v>
       </c>
       <c r="X9" t="n">
-        <v>-31.8701</v>
+        <v>0.0247</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-32.5481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>-0.016</v>
@@ -1067,16 +1089,17 @@
       <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
+      <c r="Y10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -1091,42 +1114,45 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" t="n">
-        <v>-0.016</v>
+        <v>-0.0168</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0271</v>
+        <v>-0.027</v>
       </c>
       <c r="R11" t="n">
         <v>-0.0217</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0166</v>
+        <v>-0.0165</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0039</v>
+        <v>0.004</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0044</v>
+        <v>-0.0043</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0142</v>
+        <v>-0.009</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0292</v>
+        <v>-0.0188</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.7932</v>
+        <v>-1.338</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.4654</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>-0.0117</v>
@@ -1173,16 +1199,17 @@
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
+      <c r="Y12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -1197,42 +1224,45 @@
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13" t="n">
-        <v>-0.1261</v>
+        <v>-0.1517</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0791</v>
+        <v>0.0759</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0212</v>
+        <v>0.0199</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0459</v>
+        <v>0.0463</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.0139</v>
+        <v>0.0129</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0273</v>
+        <v>-0.0203</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.0132</v>
+        <v>-0.0063</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0031</v>
+        <v>0.01</v>
       </c>
       <c r="X13" t="n">
-        <v>-5.1268</v>
+        <v>0.0512</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-5.1115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>-0.4941</v>
@@ -1279,16 +1309,17 @@
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
+      <c r="Y14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1303,42 +1334,45 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" t="n">
-        <v>0.1467</v>
+        <v>0.1945</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2759</v>
+        <v>0.2936</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2413</v>
+        <v>0.2059</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.093</v>
+        <v>-0.114</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.1035</v>
+        <v>-0.1096</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.0674</v>
+        <v>-0.0731</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.0733</v>
+        <v>-0.0788</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.0247</v>
+        <v>-0.0306</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5395</v>
+        <v>-0.0497</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7.5324</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
         <v>-0.0388</v>
@@ -1385,16 +1419,17 @@
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
+      <c r="Y16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -1418,7 +1453,7 @@
         <v>-0.0224</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0152</v>
+        <v>-0.0153</v>
       </c>
       <c r="T17" t="n">
         <v>-0.0138</v>
@@ -1435,16 +1470,19 @@
       <c r="X17" t="n">
         <v>-0.0099</v>
       </c>
+      <c r="Y17" t="n">
+        <v>-0.0067</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0.1201</v>
@@ -1491,16 +1529,17 @@
       <c r="V18"/>
       <c r="W18"/>
       <c r="X18"/>
+      <c r="Y18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -1541,16 +1580,19 @@
       <c r="X19" t="n">
         <v>-0.0064</v>
       </c>
+      <c r="Y19" t="n">
+        <v>-0.0058</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>0.0097</v>
@@ -1597,16 +1639,17 @@
       <c r="V20"/>
       <c r="W20"/>
       <c r="X20"/>
+      <c r="Y20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -1621,42 +1664,45 @@
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0.0063</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0.0068</v>
-      </c>
       <c r="R21" t="n">
-        <v>0.0063</v>
+        <v>0.0058</v>
       </c>
       <c r="S21" t="n">
-        <v>0.006</v>
+        <v>0.0055</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0059</v>
+        <v>0.0054</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0058</v>
+        <v>0.0053</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0058</v>
+        <v>0.0053</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0045</v>
+        <v>0.004</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0047</v>
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.0049</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
         <v>-0.0263</v>
@@ -1703,16 +1749,17 @@
       <c r="V22"/>
       <c r="W22"/>
       <c r="X22"/>
+      <c r="Y22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1727,42 +1774,45 @@
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23" t="n">
-        <v>0.0371</v>
+        <v>0.0882</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0715</v>
+        <v>0.1214</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0681</v>
+        <v>0.117</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0747</v>
+        <v>-0.0271</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.073</v>
+        <v>-0.0755</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0725</v>
+        <v>-0.0749</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.1269</v>
+        <v>-0.1293</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.1177</v>
+        <v>-0.1201</v>
       </c>
       <c r="X23" t="n">
-        <v>-6.4648</v>
+        <v>-0.0884</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-6.4514</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
         <v>0.0635</v>
@@ -1809,16 +1859,17 @@
       <c r="V24"/>
       <c r="W24"/>
       <c r="X24"/>
+      <c r="Y24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
         <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -1836,13 +1887,13 @@
         <v>-0.0932</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.0548</v>
+        <v>-0.0549</v>
       </c>
       <c r="R25" t="n">
         <v>-0.0298</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.0295</v>
+        <v>-0.0296</v>
       </c>
       <c r="T25" t="n">
         <v>-0.0233</v>
@@ -1857,18 +1908,21 @@
         <v>-0.0001</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.0073</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-0.0072</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>0.3548</v>
@@ -1915,16 +1969,17 @@
       <c r="V26"/>
       <c r="W26"/>
       <c r="X26"/>
+      <c r="Y26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -1939,42 +1994,45 @@
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27" t="n">
-        <v>-0.2926</v>
+        <v>-0.2934</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.263</v>
+        <v>-0.2648</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1065</v>
+        <v>-0.108</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0588</v>
+        <v>-0.0601</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0936</v>
+        <v>-0.0955</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0697</v>
+        <v>-0.0721</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.0316</v>
+        <v>-0.0344</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0126</v>
+        <v>-0.0158</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0735</v>
+        <v>-0.0114</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0.0705</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
         <v>0.0705</v>
@@ -2021,16 +2079,17 @@
       <c r="V28"/>
       <c r="W28"/>
       <c r="X28"/>
+      <c r="Y28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
         <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -2071,16 +2130,19 @@
       <c r="X29" t="n">
         <v>0</v>
       </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
         <v>-2.4278</v>
@@ -2127,16 +2189,17 @@
       <c r="V30"/>
       <c r="W30"/>
       <c r="X30"/>
+      <c r="Y30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
         <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -2151,42 +2214,45 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>-0.711</v>
+        <v>-0.0469</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.3727</v>
+        <v>-0.2889</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1743</v>
+        <v>0.2229</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.357</v>
+        <v>-0.287</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.5872</v>
+        <v>-0.4873</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.4066</v>
+        <v>-0.3859</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.5123</v>
+        <v>-0.4892</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.412</v>
+        <v>-0.3841</v>
       </c>
       <c r="X31" t="n">
-        <v>-73.1206</v>
+        <v>-1.2757</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-72.1976</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="n">
         <v>23292.4</v>
@@ -2233,16 +2299,17 @@
       <c r="V32"/>
       <c r="W32"/>
       <c r="X32"/>
+      <c r="Y32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
         <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -2257,42 +2324,45 @@
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33" t="n">
-        <v>28642.9977</v>
+        <v>28629.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>28953.2298</v>
+        <v>28939.2827</v>
       </c>
       <c r="R33" t="n">
-        <v>29240.6742</v>
+        <v>29226.5886</v>
       </c>
       <c r="S33" t="n">
-        <v>29540.6119</v>
+        <v>29526.3818</v>
       </c>
       <c r="T33" t="n">
-        <v>29847.8456</v>
+        <v>29833.4675</v>
       </c>
       <c r="U33" t="n">
-        <v>30149.0826</v>
+        <v>30134.5594</v>
       </c>
       <c r="V33" t="n">
-        <v>30434.9279</v>
+        <v>30420.267</v>
       </c>
       <c r="W33" t="n">
-        <v>30700.9839</v>
+        <v>30686.1948</v>
       </c>
       <c r="X33" t="n">
-        <v>30970.8378</v>
+        <v>30955.9188</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>31236.7314</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" t="n">
         <v>0.4797</v>
@@ -2339,16 +2409,17 @@
       <c r="V34"/>
       <c r="W34"/>
       <c r="X34"/>
+      <c r="Y34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
         <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -2363,42 +2434,45 @@
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>-0.2253</v>
+        <v>0.0129</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0158</v>
+        <v>-0.0126</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0114</v>
+        <v>0.0146</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.311</v>
+        <v>-0.3081</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.1953</v>
+        <v>-0.1924</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0404</v>
+        <v>-0.0375</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.0913</v>
+        <v>-0.0885</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0371</v>
+        <v>-0.0343</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.3919</v>
+        <v>-0.0333</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-6.5514</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="n">
         <v>0.0044</v>
@@ -2445,16 +2519,17 @@
       <c r="V36"/>
       <c r="W36"/>
       <c r="X36"/>
+      <c r="Y36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
         <v>27</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -2495,16 +2570,19 @@
       <c r="X37" t="n">
         <v>0.0053</v>
       </c>
+      <c r="Y37" t="n">
+        <v>0.0053</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
         <v>-1.0203</v>
@@ -2551,16 +2629,17 @@
       <c r="V38"/>
       <c r="W38"/>
       <c r="X38"/>
+      <c r="Y38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
         <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -2578,16 +2657,16 @@
         <v>-0.1049</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.1017</v>
+        <v>-0.1018</v>
       </c>
       <c r="R39" t="n">
         <v>-0.0998</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.0969</v>
+        <v>-0.097</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.0941</v>
+        <v>-0.0942</v>
       </c>
       <c r="U39" t="n">
         <v>-0.001</v>
@@ -2601,16 +2680,19 @@
       <c r="X39" t="n">
         <v>0</v>
       </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
         <v>-0.2618</v>
@@ -2657,16 +2739,17 @@
       <c r="V40"/>
       <c r="W40"/>
       <c r="X40"/>
+      <c r="Y40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
         <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -2707,16 +2790,19 @@
       <c r="X41" t="n">
         <v>0</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
         <v>-0.8374</v>
@@ -2763,16 +2849,17 @@
       <c r="V42"/>
       <c r="W42"/>
       <c r="X42"/>
+      <c r="Y42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
         <v>27</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -2787,42 +2874,45 @@
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43" t="n">
-        <v>0.2111</v>
+        <v>0.0455</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.0711</v>
+        <v>-0.0526</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.0965</v>
+        <v>-0.0781</v>
       </c>
       <c r="S43" t="n">
-        <v>0.1812</v>
+        <v>0.1999</v>
       </c>
       <c r="T43" t="n">
-        <v>0.067</v>
+        <v>0.0857</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.1014</v>
+        <v>-0.0827</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.0518</v>
+        <v>-0.0331</v>
       </c>
       <c r="W43" t="n">
-        <v>-0.0934</v>
+        <v>-0.0747</v>
       </c>
       <c r="X43" t="n">
-        <v>-37.6317</v>
+        <v>0.1643</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-37.3878</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
         <v>-0.0154</v>
@@ -2869,16 +2959,17 @@
       <c r="V44"/>
       <c r="W44"/>
       <c r="X44"/>
+      <c r="Y44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
         <v>27</v>
-      </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -2893,7 +2984,7 @@
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45" t="n">
-        <v>-0.0233</v>
+        <v>-0.0232</v>
       </c>
       <c r="Q45" t="n">
         <v>-0.0165</v>
@@ -2905,7 +2996,7 @@
         <v>0.0145</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.0058</v>
+        <v>-0.0057</v>
       </c>
       <c r="U45" t="n">
         <v>-0.0052</v>
@@ -2914,21 +3005,24 @@
         <v>0.001</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0063</v>
+        <v>0.0064</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0751</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.0733</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" t="n">
         <v>0.2365</v>
@@ -2975,16 +3069,17 @@
       <c r="V46"/>
       <c r="W46"/>
       <c r="X46"/>
+      <c r="Y46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
         <v>27</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>26</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -2999,42 +3094,45 @@
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47" t="n">
-        <v>0.091</v>
+        <v>0.1122</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0389</v>
+        <v>0.0612</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1597</v>
+        <v>0.1825</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0016</v>
+        <v>0.0247</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0241</v>
+        <v>-0.0208</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.0263</v>
+        <v>-0.0239</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.0242</v>
+        <v>-0.0217</v>
       </c>
       <c r="W47" t="n">
-        <v>-0.0216</v>
+        <v>-0.0191</v>
       </c>
       <c r="X47" t="n">
-        <v>-0.9721</v>
+        <v>-0.0118</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-0.9884</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
         <v>-0.1223</v>
@@ -3081,16 +3179,17 @@
       <c r="V48"/>
       <c r="W48"/>
       <c r="X48"/>
+      <c r="Y48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
         <v>27</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -3105,42 +3204,45 @@
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49" t="n">
-        <v>0.2058</v>
+        <v>0.1856</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1218</v>
+        <v>0.0928</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0847</v>
+        <v>0.0661</v>
       </c>
       <c r="S49" t="n">
-        <v>0.055</v>
+        <v>0.0412</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.015</v>
+        <v>-0.0286</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0165</v>
+        <v>0.0032</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0298</v>
+        <v>0.0167</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0136</v>
+        <v>0.0008</v>
       </c>
       <c r="X49" t="n">
-        <v>3.9351</v>
+        <v>-0.0103</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>3.9556</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
         <v>0.0185</v>
@@ -3187,16 +3289,17 @@
       <c r="V50"/>
       <c r="W50"/>
       <c r="X50"/>
+      <c r="Y50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
         <v>27</v>
-      </c>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" t="s">
-        <v>26</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -3211,42 +3314,45 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51" t="n">
-        <v>0.0081</v>
+        <v>0.0044</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0061</v>
+        <v>0.0056</v>
       </c>
       <c r="R51" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="T51" t="n">
         <v>0.0058</v>
       </c>
-      <c r="S51" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="T51" t="n">
+      <c r="U51" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
         <v>0.0063</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0.0062</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D52" t="n">
         <v>162.3</v>
@@ -3293,16 +3399,17 @@
       <c r="V52"/>
       <c r="W52"/>
       <c r="X52"/>
+      <c r="Y52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
         <v>27</v>
-      </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>26</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -3317,7 +3424,7 @@
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53" t="n">
-        <v>199.5248</v>
+        <v>180.3</v>
       </c>
       <c r="Q53" t="n">
         <v>202.8043</v>
@@ -3341,18 +3448,21 @@
         <v>223.6447</v>
       </c>
       <c r="X53" t="n">
+        <v>227.3207</v>
+      </c>
+      <c r="Y53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
         <v>0.0067</v>
@@ -3399,16 +3509,17 @@
       <c r="V54"/>
       <c r="W54"/>
       <c r="X54"/>
+      <c r="Y54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
         <v>27</v>
-      </c>
-      <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
-        <v>26</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -3423,10 +3534,10 @@
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55" t="n">
-        <v>-0.0026</v>
+        <v>-0.0021</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.0005</v>
+        <v>-0.0006</v>
       </c>
       <c r="R55" t="n">
         <v>-0.0005</v>
@@ -3435,10 +3546,10 @@
         <v>-0.0007</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.0013</v>
+        <v>-0.0014</v>
       </c>
       <c r="U55" t="n">
-        <v>-0.0003</v>
+        <v>-0.0004</v>
       </c>
       <c r="V55" t="n">
         <v>-0.0003</v>
@@ -3449,16 +3560,19 @@
       <c r="X55" t="n">
         <v>-0.0003</v>
       </c>
+      <c r="Y55" t="n">
+        <v>-0.0003</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" t="n">
         <v>-0.156</v>
@@ -3505,16 +3619,17 @@
       <c r="V56"/>
       <c r="W56"/>
       <c r="X56"/>
+      <c r="Y56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
         <v>27</v>
-      </c>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" t="s">
-        <v>26</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -3529,42 +3644,45 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57" t="n">
-        <v>-0.0012</v>
+        <v>-0.0004</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R57" t="n">
-        <v>-0.0021</v>
+        <v>-0.0022</v>
       </c>
       <c r="S57" t="n">
+        <v>-0.0031</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.0031</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.0023</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.0031</v>
+      </c>
+      <c r="W57" t="n">
         <v>-0.003</v>
       </c>
-      <c r="T57" t="n">
-        <v>-0.0028</v>
-      </c>
-      <c r="U57" t="n">
-        <v>-0.0022</v>
-      </c>
-      <c r="V57" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="W57" t="n">
-        <v>-0.0029</v>
-      </c>
       <c r="X57" t="n">
-        <v>-0.0614</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3611,16 +3729,17 @@
       <c r="V58"/>
       <c r="W58"/>
       <c r="X58"/>
+      <c r="Y58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
@@ -3635,7 +3754,7 @@
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -3659,18 +3778,21 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
+        <v>-0.0048</v>
+      </c>
+      <c r="Y59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3717,16 +3839,17 @@
       <c r="V60"/>
       <c r="W60"/>
       <c r="X60"/>
+      <c r="Y60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -3741,7 +3864,7 @@
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>313.1603</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -3765,18 +3888,21 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -3823,16 +3949,17 @@
       <c r="V62"/>
       <c r="W62"/>
       <c r="X62"/>
+      <c r="Y62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
@@ -3873,16 +4000,19 @@
       <c r="X63" t="n">
         <v>0</v>
       </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3929,16 +4059,17 @@
       <c r="V64"/>
       <c r="W64"/>
       <c r="X64"/>
+      <c r="Y64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -3953,42 +4084,45 @@
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>0.8171</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>0.0091</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>0.0159</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>0.0138</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>31.8947</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-32.5481</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -4035,16 +4169,17 @@
       <c r="V66"/>
       <c r="W66"/>
       <c r="X66"/>
+      <c r="Y66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
@@ -4059,42 +4194,45 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>0.0053</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>0.0103</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>0.4552</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.6697</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -4141,16 +4279,17 @@
       <c r="V68"/>
       <c r="W68"/>
       <c r="X68"/>
+      <c r="Y68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -4165,42 +4304,45 @@
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>-0.0257</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>-0.0032</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>0.0268</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>5.178</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>-0.0356</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -4247,16 +4389,17 @@
       <c r="V70"/>
       <c r="W70"/>
       <c r="X70"/>
+      <c r="Y70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -4271,42 +4414,45 @@
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>0.0478</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>0.0177</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>-0.0354</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>-0.021</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>-0.0061</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>-0.0057</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>-0.0055</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>-0.0059</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>-7.5892</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.0442</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -4353,16 +4499,17 @@
       <c r="V72"/>
       <c r="W72"/>
       <c r="X72"/>
+      <c r="Y72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -4403,16 +4550,19 @@
       <c r="X73" t="n">
         <v>0</v>
       </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -4459,16 +4609,17 @@
       <c r="V74"/>
       <c r="W74"/>
       <c r="X74"/>
+      <c r="Y74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -4509,16 +4660,19 @@
       <c r="X75" t="n">
         <v>0</v>
       </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -4565,16 +4719,17 @@
       <c r="V76"/>
       <c r="W76"/>
       <c r="X76"/>
+      <c r="Y76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -4589,42 +4744,45 @@
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="X77" t="n">
+        <v>-0.0047</v>
+      </c>
+      <c r="Y77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -4671,16 +4829,17 @@
       <c r="V78"/>
       <c r="W78"/>
       <c r="X78"/>
+      <c r="Y78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -4695,42 +4854,45 @@
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>0.0511</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>0.0499</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>0.0489</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>0.0476</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>-0.0023</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>6.3764</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -4777,16 +4939,17 @@
       <c r="V80"/>
       <c r="W80"/>
       <c r="X80"/>
+      <c r="Y80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
@@ -4825,18 +4988,21 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
+        <v>0.0071</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -4883,16 +5049,17 @@
       <c r="V82"/>
       <c r="W82"/>
       <c r="X82"/>
+      <c r="Y82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -4907,42 +5074,45 @@
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>-0.0019</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>-0.0028</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>-0.0033</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>0.0622</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -4989,16 +5159,17 @@
       <c r="V84"/>
       <c r="W84"/>
       <c r="X84"/>
+      <c r="Y84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -5039,16 +5210,19 @@
       <c r="X85" t="n">
         <v>0</v>
       </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -5095,16 +5269,17 @@
       <c r="V86"/>
       <c r="W86"/>
       <c r="X86"/>
+      <c r="Y86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -5119,42 +5294,45 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>0.664</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>0.0838</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>0.0486</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>0.0999</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>0.0231</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>0.0279</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>71.845</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>-70.6836</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -5201,16 +5379,17 @@
       <c r="V88"/>
       <c r="W88"/>
       <c r="X88"/>
+      <c r="Y88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
@@ -5225,42 +5404,45 @@
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>-13.7977</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>-13.9471</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>-14.0856</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>-14.2301</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>-14.3781</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>-14.5232</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>-14.6609</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>-14.789</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>-14.919</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>-15.0544</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -5307,16 +5489,17 @@
       <c r="V90"/>
       <c r="W90"/>
       <c r="X90"/>
+      <c r="Y90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -5331,42 +5514,45 @@
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>0.2382</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="X91" t="n">
-        <v>0</v>
+        <v>6.3586</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>-6.5514</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -5413,16 +5599,17 @@
       <c r="V92"/>
       <c r="W92"/>
       <c r="X92"/>
+      <c r="Y92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -5463,16 +5650,19 @@
       <c r="X93" t="n">
         <v>0</v>
       </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -5519,16 +5709,17 @@
       <c r="V94"/>
       <c r="W94"/>
       <c r="X94"/>
+      <c r="Y94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
@@ -5569,16 +5760,19 @@
       <c r="X95" t="n">
         <v>0</v>
       </c>
+      <c r="Y95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -5625,16 +5819,17 @@
       <c r="V96"/>
       <c r="W96"/>
       <c r="X96"/>
+      <c r="Y96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
@@ -5675,16 +5870,19 @@
       <c r="X97" t="n">
         <v>0</v>
       </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -5731,16 +5929,17 @@
       <c r="V98"/>
       <c r="W98"/>
       <c r="X98"/>
+      <c r="Y98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
@@ -5755,42 +5954,45 @@
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>-0.1655</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>0.0185</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>0.0184</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="X99" t="n">
-        <v>0</v>
+        <v>37.796</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>-37.3878</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -5837,16 +6039,17 @@
       <c r="V100"/>
       <c r="W100"/>
       <c r="X100"/>
+      <c r="Y100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
@@ -5885,18 +6088,21 @@
         <v>0</v>
       </c>
       <c r="X101" t="n">
-        <v>0</v>
+        <v>-0.0786</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -5943,16 +6149,17 @@
       <c r="V102"/>
       <c r="W102"/>
       <c r="X102"/>
+      <c r="Y102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
@@ -5967,42 +6174,45 @@
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>0.0212</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>0.0224</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>0.0229</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>0.0232</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="X103" t="n">
-        <v>0</v>
+        <v>0.9603</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>-0.031</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -6049,16 +6259,17 @@
       <c r="V104"/>
       <c r="W104"/>
       <c r="X104"/>
+      <c r="Y104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
@@ -6073,42 +6284,45 @@
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>-0.0203</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>-0.029</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>-0.0186</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>-0.0138</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>-0.0136</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>-0.0133</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>-0.0131</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>-0.0129</v>
       </c>
       <c r="X105" t="n">
-        <v>0</v>
+        <v>-3.9454</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0.0529</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -6155,16 +6369,17 @@
       <c r="V106"/>
       <c r="W106"/>
       <c r="X106"/>
+      <c r="Y106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
@@ -6179,42 +6394,45 @@
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107" t="n">
-        <v>0</v>
+        <v>-0.0037</v>
       </c>
       <c r="Q107" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="R107" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="U107" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="X107" t="n">
+        <v>-0.0062</v>
+      </c>
+      <c r="Y107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -6261,16 +6479,17 @@
       <c r="V108"/>
       <c r="W108"/>
       <c r="X108"/>
+      <c r="Y108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
@@ -6285,7 +6504,7 @@
       <c r="N109"/>
       <c r="O109"/>
       <c r="P109" t="n">
-        <v>0</v>
+        <v>-19.2248</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
@@ -6309,18 +6528,21 @@
         <v>0</v>
       </c>
       <c r="X109" t="n">
+        <v>227.3207</v>
+      </c>
+      <c r="Y109" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -6367,16 +6589,17 @@
       <c r="V110"/>
       <c r="W110"/>
       <c r="X110"/>
+      <c r="Y110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D111"/>
       <c r="E111"/>
@@ -6391,10 +6614,10 @@
       <c r="N111"/>
       <c r="O111"/>
       <c r="P111" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q111" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
@@ -6415,18 +6638,21 @@
         <v>0</v>
       </c>
       <c r="X111" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="Y111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -6473,16 +6699,17 @@
       <c r="V112"/>
       <c r="W112"/>
       <c r="X112"/>
+      <c r="Y112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D113"/>
       <c r="E113"/>
@@ -6497,22 +6724,22 @@
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="U113" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="V113" t="n">
         <v>0</v>
@@ -6521,18 +6748,21 @@
         <v>0</v>
       </c>
       <c r="X113" t="n">
-        <v>0</v>
+        <v>0.0588</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>-0.0091</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D114" t="n">
         <v>0.0153</v>
@@ -6579,16 +6809,17 @@
       <c r="V114"/>
       <c r="W114"/>
       <c r="X114"/>
+      <c r="Y114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D115"/>
       <c r="E115"/>
@@ -6629,16 +6860,19 @@
       <c r="X115" t="n">
         <v>0.0048</v>
       </c>
+      <c r="Y115" t="n">
+        <v>0.0048</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D116" t="n">
         <v>268.6227</v>
@@ -6685,16 +6919,17 @@
       <c r="V116"/>
       <c r="W116"/>
       <c r="X116"/>
+      <c r="Y116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D117"/>
       <c r="E117"/>
@@ -6735,16 +6970,19 @@
       <c r="X117" t="n">
         <v>0</v>
       </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D118" t="n">
         <v>0.0416</v>
@@ -6791,16 +7029,17 @@
       <c r="V118"/>
       <c r="W118"/>
       <c r="X118"/>
+      <c r="Y118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D119"/>
       <c r="E119"/>
@@ -6841,16 +7080,19 @@
       <c r="X119" t="n">
         <v>-0.0022</v>
       </c>
+      <c r="Y119" t="n">
+        <v>-0.0028</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D120" t="n">
         <v>-0.3032</v>
@@ -6897,16 +7139,17 @@
       <c r="V120"/>
       <c r="W120"/>
       <c r="X120"/>
+      <c r="Y120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D121"/>
       <c r="E121"/>
@@ -6947,16 +7190,19 @@
       <c r="X121" t="n">
         <v>-31.8701</v>
       </c>
+      <c r="Y121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D122" t="n">
         <v>-0.016</v>
@@ -7003,16 +7249,17 @@
       <c r="V122"/>
       <c r="W122"/>
       <c r="X122"/>
+      <c r="Y122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D123"/>
       <c r="E123"/>
@@ -7053,16 +7300,19 @@
       <c r="X123" t="n">
         <v>-1.7932</v>
       </c>
+      <c r="Y123" t="n">
+        <v>0.2044</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D124" t="n">
         <v>-0.0117</v>
@@ -7109,16 +7359,17 @@
       <c r="V124"/>
       <c r="W124"/>
       <c r="X124"/>
+      <c r="Y124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D125"/>
       <c r="E125"/>
@@ -7159,16 +7410,19 @@
       <c r="X125" t="n">
         <v>-5.1268</v>
       </c>
+      <c r="Y125" t="n">
+        <v>-5.0759</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D126" t="n">
         <v>-0.4941</v>
@@ -7215,16 +7469,17 @@
       <c r="V126"/>
       <c r="W126"/>
       <c r="X126"/>
+      <c r="Y126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D127"/>
       <c r="E127"/>
@@ -7265,16 +7520,19 @@
       <c r="X127" t="n">
         <v>7.5395</v>
       </c>
+      <c r="Y127" t="n">
+        <v>7.4882</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D128" t="n">
         <v>-0.0388</v>
@@ -7321,16 +7579,17 @@
       <c r="V128"/>
       <c r="W128"/>
       <c r="X128"/>
+      <c r="Y128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D129"/>
       <c r="E129"/>
@@ -7371,16 +7630,19 @@
       <c r="X129" t="n">
         <v>-0.0099</v>
       </c>
+      <c r="Y129" t="n">
+        <v>-0.0067</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D130" t="n">
         <v>0.1201</v>
@@ -7427,16 +7689,17 @@
       <c r="V130"/>
       <c r="W130"/>
       <c r="X130"/>
+      <c r="Y130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D131"/>
       <c r="E131"/>
@@ -7477,16 +7740,19 @@
       <c r="X131" t="n">
         <v>-0.0064</v>
       </c>
+      <c r="Y131" t="n">
+        <v>-0.0058</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D132" t="n">
         <v>0.0097</v>
@@ -7533,16 +7799,17 @@
       <c r="V132"/>
       <c r="W132"/>
       <c r="X132"/>
+      <c r="Y132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D133"/>
       <c r="E133"/>
@@ -7583,16 +7850,19 @@
       <c r="X133" t="n">
         <v>0.0047</v>
       </c>
+      <c r="Y133" t="n">
+        <v>0.0049</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D134" t="n">
         <v>-0.0263</v>
@@ -7639,16 +7909,17 @@
       <c r="V134"/>
       <c r="W134"/>
       <c r="X134"/>
+      <c r="Y134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D135"/>
       <c r="E135"/>
@@ -7689,16 +7960,19 @@
       <c r="X135" t="n">
         <v>-6.4648</v>
       </c>
+      <c r="Y135" t="n">
+        <v>-6.3642</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D136" t="n">
         <v>0.0635</v>
@@ -7745,16 +8019,17 @@
       <c r="V136"/>
       <c r="W136"/>
       <c r="X136"/>
+      <c r="Y136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D137"/>
       <c r="E137"/>
@@ -7795,16 +8070,19 @@
       <c r="X137" t="n">
         <v>-0.0073</v>
       </c>
+      <c r="Y137" t="n">
+        <v>-0.0061</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D138" t="n">
         <v>0.3548</v>
@@ -7851,16 +8129,17 @@
       <c r="V138"/>
       <c r="W138"/>
       <c r="X138"/>
+      <c r="Y138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D139"/>
       <c r="E139"/>
@@ -7901,16 +8180,19 @@
       <c r="X139" t="n">
         <v>-0.0735</v>
       </c>
+      <c r="Y139" t="n">
+        <v>-0.0629</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D140" t="n">
         <v>0.0705</v>
@@ -7957,16 +8239,17 @@
       <c r="V140"/>
       <c r="W140"/>
       <c r="X140"/>
+      <c r="Y140"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D141"/>
       <c r="E141"/>
@@ -8007,16 +8290,19 @@
       <c r="X141" t="n">
         <v>0</v>
       </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D142" t="n">
         <v>-2.4278</v>
@@ -8063,16 +8349,17 @@
       <c r="V142"/>
       <c r="W142"/>
       <c r="X142"/>
+      <c r="Y142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D143"/>
       <c r="E143"/>
@@ -8113,16 +8400,19 @@
       <c r="X143" t="n">
         <v>-73.1206</v>
       </c>
+      <c r="Y143" t="n">
+        <v>-1.514</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D144" t="n">
         <v>23292.4</v>
@@ -8169,16 +8459,17 @@
       <c r="V144"/>
       <c r="W144"/>
       <c r="X144"/>
+      <c r="Y144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D145"/>
       <c r="E145"/>
@@ -8219,16 +8510,19 @@
       <c r="X145" t="n">
         <v>30970.8378</v>
       </c>
+      <c r="Y145" t="n">
+        <v>31251.7857</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D146" t="n">
         <v>0.4797</v>
@@ -8275,16 +8569,17 @@
       <c r="V146"/>
       <c r="W146"/>
       <c r="X146"/>
+      <c r="Y146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D147"/>
       <c r="E147"/>
@@ -8325,16 +8620,19 @@
       <c r="X147" t="n">
         <v>-6.3919</v>
       </c>
+      <c r="Y147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D148" t="n">
         <v>0.0044</v>
@@ -8381,16 +8679,17 @@
       <c r="V148"/>
       <c r="W148"/>
       <c r="X148"/>
+      <c r="Y148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D149"/>
       <c r="E149"/>
@@ -8431,16 +8730,19 @@
       <c r="X149" t="n">
         <v>0.0053</v>
       </c>
+      <c r="Y149" t="n">
+        <v>0.0053</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D150" t="n">
         <v>-1.0203</v>
@@ -8487,16 +8789,17 @@
       <c r="V150"/>
       <c r="W150"/>
       <c r="X150"/>
+      <c r="Y150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D151"/>
       <c r="E151"/>
@@ -8537,16 +8840,19 @@
       <c r="X151" t="n">
         <v>0</v>
       </c>
+      <c r="Y151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D152" t="n">
         <v>-0.2618</v>
@@ -8593,16 +8899,17 @@
       <c r="V152"/>
       <c r="W152"/>
       <c r="X152"/>
+      <c r="Y152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D153"/>
       <c r="E153"/>
@@ -8643,16 +8950,19 @@
       <c r="X153" t="n">
         <v>0</v>
       </c>
+      <c r="Y153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D154" t="n">
         <v>-0.8374</v>
@@ -8699,16 +9009,17 @@
       <c r="V154"/>
       <c r="W154"/>
       <c r="X154"/>
+      <c r="Y154"/>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D155"/>
       <c r="E155"/>
@@ -8749,16 +9060,19 @@
       <c r="X155" t="n">
         <v>-37.6317</v>
       </c>
+      <c r="Y155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D156" t="n">
         <v>-0.0154</v>
@@ -8805,16 +9119,17 @@
       <c r="V156"/>
       <c r="W156"/>
       <c r="X156"/>
+      <c r="Y156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D157"/>
       <c r="E157"/>
@@ -8855,16 +9170,19 @@
       <c r="X157" t="n">
         <v>0.0751</v>
       </c>
+      <c r="Y157" t="n">
+        <v>0.0728</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D158" t="n">
         <v>0.2365</v>
@@ -8911,16 +9229,17 @@
       <c r="V158"/>
       <c r="W158"/>
       <c r="X158"/>
+      <c r="Y158"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D159"/>
       <c r="E159"/>
@@ -8961,16 +9280,19 @@
       <c r="X159" t="n">
         <v>-0.9721</v>
       </c>
+      <c r="Y159" t="n">
+        <v>-0.9573</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D160" t="n">
         <v>-0.1223</v>
@@ -9017,16 +9339,17 @@
       <c r="V160"/>
       <c r="W160"/>
       <c r="X160"/>
+      <c r="Y160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B161" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D161"/>
       <c r="E161"/>
@@ -9067,16 +9390,19 @@
       <c r="X161" t="n">
         <v>3.9351</v>
       </c>
+      <c r="Y161" t="n">
+        <v>3.9027</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B162" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D162" t="n">
         <v>0.0185</v>
@@ -9123,16 +9449,17 @@
       <c r="V162"/>
       <c r="W162"/>
       <c r="X162"/>
+      <c r="Y162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D163"/>
       <c r="E163"/>
@@ -9173,16 +9500,19 @@
       <c r="X163" t="n">
         <v>0.0062</v>
       </c>
+      <c r="Y163" t="n">
+        <v>0.0063</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D164" t="n">
         <v>162.3</v>
@@ -9229,16 +9559,17 @@
       <c r="V164"/>
       <c r="W164"/>
       <c r="X164"/>
+      <c r="Y164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B165" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D165"/>
       <c r="E165"/>
@@ -9279,16 +9610,19 @@
       <c r="X165" t="n">
         <v>0</v>
       </c>
+      <c r="Y165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D166" t="n">
         <v>0.0067</v>
@@ -9335,16 +9669,17 @@
       <c r="V166"/>
       <c r="W166"/>
       <c r="X166"/>
+      <c r="Y166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B167" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D167"/>
       <c r="E167"/>
@@ -9385,16 +9720,19 @@
       <c r="X167" t="n">
         <v>-0.0003</v>
       </c>
+      <c r="Y167" t="n">
+        <v>-0.0003</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D168" t="n">
         <v>-0.156</v>
@@ -9441,16 +9779,17 @@
       <c r="V168"/>
       <c r="W168"/>
       <c r="X168"/>
+      <c r="Y168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D169"/>
       <c r="E169"/>
@@ -9491,6 +9830,9 @@
       <c r="X169" t="n">
         <v>-0.0614</v>
       </c>
+      <c r="Y169" t="n">
+        <v>-0.0515</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
